--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenDeRutas.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/ResumenDeRutas.xlsx
@@ -5,48 +5,49 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matias Alfano\Source\Repos\Logictracker 4.0\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="216" windowWidth="14112" windowHeight="5640"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="14115" windowHeight="5640"/>
   </bookViews>
   <sheets>
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_">Informe!$L$13</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$13:$N$14</definedName>
+    <definedName name="_">Informe!$M$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$13:$O$14</definedName>
     <definedName name="Con_Vehiculo">Informe!$B$9</definedName>
     <definedName name="En_Curso">Informe!$D$11</definedName>
-    <definedName name="ENSITIO">Informe!$J$13</definedName>
-    <definedName name="ENTREGAS">Informe!$F$13</definedName>
-    <definedName name="ENZONA">Informe!$K$13</definedName>
+    <definedName name="ENSITIO">Informe!$K$13</definedName>
+    <definedName name="ENTREGAS">Informe!$G$13</definedName>
+    <definedName name="ENZONA">Informe!$L$13</definedName>
     <definedName name="ESTADO">Informe!$A$13</definedName>
+    <definedName name="FIN">Informe!$E$13</definedName>
     <definedName name="Finalizadas">Informe!$B$11</definedName>
     <definedName name="Iniciadas">Informe!$B$10</definedName>
     <definedName name="INICIO">Informe!$D$13</definedName>
-    <definedName name="KMS">Informe!$M$13</definedName>
+    <definedName name="KMS">Informe!$N$13</definedName>
     <definedName name="PARENTI03">Informe!$C$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Informe!$A:$B</definedName>
-    <definedName name="REALIZADOS">Informe!$G$13</definedName>
-    <definedName name="RECEPCION">Informe!$E$13</definedName>
-    <definedName name="RECHAZADOS">Informe!$I$13</definedName>
-    <definedName name="RECORRIDO">Informe!$N$13</definedName>
+    <definedName name="REALIZADOS">Informe!$H$13</definedName>
+    <definedName name="RECEPCION">Informe!$F$13</definedName>
+    <definedName name="RECHAZADOS">Informe!$J$13</definedName>
+    <definedName name="RECORRIDO">Informe!$O$13</definedName>
     <definedName name="RUTA">Informe!$B$13</definedName>
     <definedName name="Rutas_Totales">Informe!$B$8</definedName>
     <definedName name="Sin_Iniciar">Informe!$D$10</definedName>
     <definedName name="Sin_Vehiculo">Informe!$D$9</definedName>
     <definedName name="Titulo">Informe!$D$1</definedName>
     <definedName name="Vehiculos_Totales">Informe!$D$8</definedName>
-    <definedName name="VISITADOS">Informe!$H$13</definedName>
+    <definedName name="VISITADOS">Informe!$I$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Funciones</t>
   </si>
@@ -118,6 +119,9 @@
   </si>
   <si>
     <t>En zona</t>
+  </si>
+  <si>
+    <t>Fin</t>
   </si>
 </sst>
 </file>
@@ -1204,84 +1208,91 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1290,11 +1301,12 @@
         <v>18</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>14</v>
       </c>
@@ -1303,11 +1315,12 @@
         <v>15</v>
       </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1316,11 +1329,12 @@
         <v>17</v>
       </c>
       <c r="D10" s="15"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>12</v>
       </c>
@@ -1329,11 +1343,12 @@
         <v>16</v>
       </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>3</v>
       </c>
@@ -1347,37 +1362,40 @@
         <v>9</v>
       </c>
       <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="L13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1389,12 +1407,13 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A13:N14"/>
+  <autoFilter ref="A13:O14"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="92" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
